--- a/Code/2_CLEANING_AND_NER/NER/Claire NER results.xlsx
+++ b/Code/2_CLEANING_AND_NER/NER/Claire NER results.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26522"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9CAACE5-EF75-4BA3-97A7-38228E1063CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/izzy/Desktop/UNI/Diss/Code/2_CLEANING_AND_NER/NER/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C216632-4805-284D-A8F7-A6C938F5FF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3100" yWindow="1280" windowWidth="25560" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -583,7 +588,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -984,16 +989,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="M75" sqref="M75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="9" max="9" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1001,12 +1007,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="D5" s="3"/>
@@ -1014,7 +1020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>2</v>
@@ -1029,7 +1035,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>4</v>
@@ -1046,7 +1052,7 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>3</v>
@@ -1063,7 +1069,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1082,7 +1088,7 @@
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1101,7 +1107,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1120,7 +1126,7 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
@@ -1137,7 +1143,7 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
@@ -1156,7 +1162,7 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>27</v>
@@ -1171,7 +1177,7 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
         <v>29</v>
@@ -1186,7 +1192,7 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>31</v>
@@ -1201,7 +1207,7 @@
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>33</v>
@@ -1216,7 +1222,7 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="D18" s="3"/>
       <c r="I18" s="5"/>
@@ -1226,7 +1232,7 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="D19" s="3"/>
       <c r="I19" s="9" t="s">
@@ -1240,7 +1246,7 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="D20" s="3"/>
       <c r="I20" s="5" t="s">
@@ -1254,7 +1260,7 @@
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
         <v>35</v>
@@ -1271,7 +1277,7 @@
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>40</v>
@@ -1288,7 +1294,7 @@
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
         <v>43</v>
@@ -1305,7 +1311,7 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>6</v>
       </c>
@@ -1322,7 +1328,7 @@
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
@@ -1339,7 +1345,7 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>50</v>
       </c>
@@ -1356,7 +1362,7 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>53</v>
       </c>
@@ -1373,7 +1379,7 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>56</v>
       </c>
@@ -1390,7 +1396,7 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
         <v>58</v>
@@ -1405,7 +1411,7 @@
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>60</v>
@@ -1420,7 +1426,7 @@
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
         <v>62</v>
@@ -1433,7 +1439,7 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="D32" s="3"/>
       <c r="I32" s="9" t="s">
@@ -1445,7 +1451,7 @@
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="D33" s="3"/>
       <c r="I33" s="5" t="s">
@@ -1459,7 +1465,7 @@
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
         <v>63</v>
@@ -1476,7 +1482,7 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="5" t="s">
         <v>67</v>
@@ -1493,7 +1499,7 @@
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>6</v>
       </c>
@@ -1512,7 +1518,7 @@
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>73</v>
       </c>
@@ -1531,7 +1537,7 @@
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>77</v>
       </c>
@@ -1548,7 +1554,7 @@
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>80</v>
       </c>
@@ -1565,7 +1571,7 @@
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>83</v>
       </c>
@@ -1582,7 +1588,7 @@
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="5" t="s">
         <v>29</v>
@@ -1597,7 +1603,7 @@
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="5" t="s">
         <v>31</v>
@@ -1612,7 +1618,7 @@
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="5" t="s">
         <v>33</v>
@@ -1627,7 +1633,7 @@
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="D44" s="3"/>
       <c r="I44" s="5"/>
@@ -1637,7 +1643,7 @@
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="D45" s="3"/>
       <c r="I45" s="10" t="s">
@@ -1651,7 +1657,7 @@
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="D46" s="3"/>
       <c r="I46" s="5" t="s">
@@ -1665,7 +1671,7 @@
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="2" t="s">
         <v>87</v>
@@ -1687,7 +1693,7 @@
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="5" t="s">
         <v>93</v>
@@ -1712,7 +1718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="5" t="s">
         <v>98</v>
@@ -1739,7 +1745,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>6</v>
       </c>
@@ -1768,7 +1774,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>111</v>
       </c>
@@ -1797,7 +1803,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>119</v>
       </c>
@@ -1824,7 +1830,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>126</v>
       </c>
@@ -1848,7 +1854,7 @@
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>128</v>
       </c>
@@ -1870,7 +1876,7 @@
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="5" t="s">
         <v>33</v>
@@ -1890,7 +1896,7 @@
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="5" t="s">
         <v>31</v>
@@ -1910,7 +1916,7 @@
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="D57" s="3"/>
       <c r="I57" s="5"/>
@@ -1920,7 +1926,7 @@
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="D58" s="3"/>
       <c r="I58" s="9" t="s">
@@ -1932,7 +1938,7 @@
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="D59" s="3"/>
       <c r="I59" s="5" t="s">
@@ -1944,7 +1950,7 @@
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="7" t="s">
         <v>134</v>
@@ -1959,7 +1965,7 @@
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="5" t="s">
         <v>137</v>
@@ -1974,7 +1980,7 @@
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="5" t="s">
         <v>139</v>
@@ -1991,7 +1997,7 @@
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="5" t="s">
         <v>141</v>
@@ -2008,7 +2014,7 @@
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>6</v>
       </c>
@@ -2027,7 +2033,7 @@
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>147</v>
       </c>
@@ -2046,7 +2052,7 @@
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>151</v>
       </c>
@@ -2065,7 +2071,7 @@
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>155</v>
       </c>
@@ -2082,7 +2088,7 @@
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>157</v>
       </c>
@@ -2099,7 +2105,7 @@
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="5" t="s">
         <v>160</v>
@@ -2114,7 +2120,7 @@
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="D70" s="3"/>
       <c r="I70" s="5"/>
@@ -2124,7 +2130,7 @@
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="D71" s="3"/>
       <c r="I71" s="9" t="s">
@@ -2136,7 +2142,7 @@
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="D72" s="3"/>
       <c r="I72" s="5" t="s">
@@ -2148,7 +2154,7 @@
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="8" t="s">
         <v>161</v>
@@ -2163,7 +2169,7 @@
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="5" t="s">
         <v>164</v>
@@ -2180,7 +2186,7 @@
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>6</v>
       </c>
@@ -2199,7 +2205,7 @@
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>169</v>
       </c>
@@ -2218,7 +2224,7 @@
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>173</v>
       </c>
@@ -2237,7 +2243,7 @@
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>177</v>
       </c>
@@ -2256,7 +2262,7 @@
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>181</v>
       </c>
@@ -2273,7 +2279,7 @@
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="5" t="s">
         <v>131</v>
@@ -2288,7 +2294,7 @@
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="5" t="s">
         <v>31</v>
@@ -2303,7 +2309,7 @@
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="5" t="s">
         <v>33</v>
